--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,13 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>доплатить 14,98 руб</t>
-  </si>
-  <si>
-    <t>доплатить 12,96 руб</t>
-  </si>
-  <si>
-    <t>доплатить 11,60 руб</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,17 +85,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -109,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,24 +122,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -169,21 +146,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,166 +471,198 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43281</v>
+        <v>43366</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>420</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>622</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>160</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>198</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43366</v>
+        <v>43520</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>542</v>
+        <v>852</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>122</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>230</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F2:F5" si="1">D4*E4</f>
+        <v>1051.1000000000001</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>2107.4800000000005</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2092.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>178</v>
+        <v>640</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.35</v>
+        <v>442</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>42.300000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1056.3800000000001</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43366</v>
+        <v>43613</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>622</v>
+        <v>980</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.5</v>
+        <f>C6-C4</f>
+        <v>128</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>584.96</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>823.96</v>
+      </c>
+      <c r="H6" s="9">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>198</v>
+        <v>740</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.35</v>
+        <f>C7-C5</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.39</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
+        <f>D7*E7</f>
+        <v>239</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43520</v>
+        <v>43879</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>852</v>
+        <v>1150</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4.57</v>
+        <f>C8-C6</f>
+        <v>170</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>1051.1000000000001</v>
+        <f>D8*E8</f>
+        <v>763.30000000000007</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>884.80000000000007</v>
+      </c>
+      <c r="H8" s="9">
+        <v>884.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -675,189 +671,64 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>442</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2.39</v>
+        <f>C9-C7</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>1056.3800000000001</v>
-      </c>
+        <f>D9*E9</f>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G2:G9)</f>
+        <v>3816.2400000000007</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>3788.3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43613</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>980</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C8</f>
-        <v>128</v>
-      </c>
-      <c r="E11" s="15">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>584.96</v>
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>SUM(H10,-G10)</f>
+        <v>-27.940000000000509</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>740</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C9</f>
-        <v>100</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43879</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1150</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C11</f>
-        <v>170</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>776.90000000000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>790</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C12</f>
-        <v>50</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F2:F5" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>1051.1000000000001</v>
       </c>
       <c r="G4" s="9">
@@ -688,37 +688,55 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
+      <c r="A10" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1150</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G2:G9)</f>
-        <v>3816.2400000000007</v>
+        <f>SUM(F10,F11)</f>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H2:H9)</f>
-        <v>3788.3</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>790</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C9</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>0</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>SUM(H10,-G10)</f>
-        <v>-27.940000000000509</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -726,9 +744,42 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G2:G11)</f>
+        <v>3816.2400000000007</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H2:H11)</f>
+        <v>4260.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <f>SUM(H12,-G12)</f>
+        <v>444.05999999999949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,14 +596,14 @@
         <v>980</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
+        <f t="shared" ref="D6:D13" si="2">C6-C4</f>
         <v>128</v>
       </c>
       <c r="E6" s="10">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>584.96</v>
       </c>
       <c r="G6" s="9">
@@ -623,14 +623,14 @@
         <v>740</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E7" s="10">
         <v>2.39</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="G7" s="9"/>
@@ -647,14 +647,14 @@
         <v>1150</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C6</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="E8" s="10">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="3"/>
         <v>763.30000000000007</v>
       </c>
       <c r="G8" s="9">
@@ -674,14 +674,14 @@
         <v>790</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C7</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E9" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="3"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G9" s="9"/>
@@ -698,14 +698,14 @@
         <v>1150</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="10">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10" s="9">
@@ -725,51 +725,69 @@
         <v>790</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
+      <c r="A12" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1390</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G12" s="9">
-        <f>SUM(G2:G11)</f>
-        <v>3816.2400000000007</v>
+        <f>SUM(F12,F13)</f>
+        <v>1181.4000000000001</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(H2:H11)</f>
-        <v>4260.3</v>
+        <v>653.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>810</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <f>SUM(H12,-G12)</f>
-        <v>444.05999999999949</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -777,9 +795,42 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G2:G13)</f>
+        <v>4997.6400000000012</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H2:H13)</f>
+        <v>4913.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <f>SUM(H14,-G14)</f>
+        <v>-83.840000000001055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H12" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -790,37 +790,55 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1590</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="5">C14-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>942</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>967.5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>923.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>820</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G14" s="9">
-        <f>SUM(G2:G13)</f>
-        <v>4997.6400000000012</v>
-      </c>
-      <c r="H14" s="9">
-        <f>SUM(H2:H13)</f>
-        <v>4913.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>11</v>
+      <c r="E15" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>25.5</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <f>SUM(H14,-G14)</f>
-        <v>-83.840000000001055</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -828,9 +846,42 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(G2:G15)</f>
+        <v>5965.1400000000012</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H2:H15)</f>
+        <v>5837.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
+        <v>-127.84000000000106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H10:H12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -841,37 +841,55 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
+      <c r="A16" s="4">
+        <v>44229</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1590</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="7">C16-C14</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>0</v>
       </c>
       <c r="G16" s="9">
-        <f>SUM(G2:G15)</f>
-        <v>5965.1400000000012</v>
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f>SUM(H2:H15)</f>
-        <v>5837.3</v>
+        <v>1283.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>820</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
-        <v>-127.84000000000106</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -879,9 +897,42 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(G2:G15)</f>
+        <v>5965.1400000000012</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H2:H15)</f>
+        <v>5837.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
+        <v>-127.84000000000106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,37 +892,55 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
+      <c r="A18" s="4">
+        <v>44364</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1590</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="9">C18-C16</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f>SUM(G2:G15)</f>
-        <v>5965.1400000000012</v>
+        <f>SUM(F18,F19)</f>
+        <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f>SUM(H2:H15)</f>
-        <v>5837.3</v>
+        <v>1732.8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>11</v>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>820</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
-        <v>-127.84000000000106</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -930,14 +948,47 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(G2:G15)</f>
+        <v>5965.1400000000012</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H15)</f>
+        <v>5837.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
+        <v>-127.84000000000106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -150,6 +150,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H12" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -478,7 +479,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -504,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43366</v>
       </c>
@@ -520,7 +521,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -534,7 +535,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43520</v>
       </c>
@@ -562,8 +563,12 @@
       <c r="H4" s="9">
         <v>2092.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="11">
+        <f>SUM(G4,-H4)</f>
+        <v>14.980000000000473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -585,7 +590,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43613</v>
       </c>
@@ -613,8 +618,12 @@
       <c r="H6" s="9">
         <v>811</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="11">
+        <f>SUM(G6,-H6)</f>
+        <v>12.960000000000036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -636,7 +645,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -664,8 +673,12 @@
       <c r="H8" s="9">
         <v>884.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="11">
+        <f>SUM(G8,-H8)</f>
+        <v>1.1368683772161603E-13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -687,7 +700,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43971</v>
       </c>
@@ -715,8 +728,12 @@
       <c r="H10" s="9">
         <v>472</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="11">
+        <f>SUM(G10,-H10)</f>
+        <v>-472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -738,7 +755,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44071</v>
       </c>
@@ -766,8 +783,12 @@
       <c r="H12" s="9">
         <v>653.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="11">
+        <f>SUM(G12,-H12)</f>
+        <v>527.90000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -789,7 +810,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44165</v>
       </c>
@@ -817,8 +838,12 @@
       <c r="H14" s="9">
         <v>923.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="11">
+        <f>SUM(G14,-H14)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -840,7 +865,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44229</v>
       </c>
@@ -848,50 +873,54 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>1590</v>
+        <v>1870</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D17" si="7">C16-C14</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E16" s="10">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>0</v>
+        <v>1318.8</v>
       </c>
       <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
-        <v>0</v>
+        <v>1344.3</v>
       </c>
       <c r="H16" s="9">
         <v>1283.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="11">
+        <f>SUM(G16,-H16)</f>
+        <v>60.799999999999955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44364</v>
       </c>
@@ -899,50 +928,54 @@
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>1590</v>
+        <v>2200</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ref="D18:D19" si="9">C18-C16</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="E18" s="10">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ref="F18:F19" si="10">D18*E18</f>
-        <v>0</v>
+        <v>1554.3</v>
       </c>
       <c r="G18" s="9">
         <f>SUM(F18,F19)</f>
-        <v>0</v>
+        <v>1732.8</v>
       </c>
       <c r="H18" s="9">
         <v>1732.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="11">
+        <f>SUM(G18,-H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>820</v>
+        <v>900</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E19" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>178.5</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -952,15 +985,19 @@
         <v>10</v>
       </c>
       <c r="G20" s="9">
-        <f>SUM(G2:G15)</f>
-        <v>5965.1400000000012</v>
+        <f>SUM(G2:G19)</f>
+        <v>9042.2400000000016</v>
       </c>
       <c r="H20" s="9">
-        <f>SUM(H2:H15)</f>
-        <v>5837.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(H2:H19)</f>
+        <v>8853.6</v>
+      </c>
+      <c r="I20" s="11">
+        <f>SUM(G20,-H20)</f>
+        <v>188.64000000000124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -972,10 +1009,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <f>SUM(H20,-G20)</f>
-        <v>-127.84000000000106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-188.64000000000124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>

--- a/sputnik/personal/ee/237ee.xlsx
+++ b/sputnik/personal/ee/237ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H10:H12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -976,41 +976,59 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
+      <c r="A20" s="4">
+        <v>44517</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2350</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="11">C20-C18</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>706.5</v>
       </c>
       <c r="G20" s="9">
-        <f>SUM(G2:G19)</f>
-        <v>9042.2400000000016</v>
+        <f>SUM(F20,F21)</f>
+        <v>834</v>
       </c>
       <c r="H20" s="9">
-        <f>SUM(H2:H19)</f>
-        <v>8853.6</v>
+        <v>834</v>
       </c>
       <c r="I20" s="11">
-        <f>SUM(G20,-H20)</f>
+        <f>SUM(G22,-H22)</f>
         <v>188.64000000000124</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>11</v>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>950</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="12"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="9">
-        <f>SUM(H20,-G20)</f>
-        <v>-188.64000000000124</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1018,9 +1036,42 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(G2:G21)</f>
+        <v>9876.2400000000016</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H2:H21)</f>
+        <v>9687.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f>SUM(H22,-G22)</f>
+        <v>-188.64000000000124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
